--- a/output-2/drone-polysemi/cosine/train_history_cosine.xlsx
+++ b/output-2/drone-polysemi/cosine/train_history_cosine.xlsx
@@ -728,252 +728,252 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.768095</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.838421</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849923</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.838612</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.834356</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.861423</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.868381</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857573</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.855889</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85822</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.855162</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.847254</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.862385</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.851515</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863878</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.86804</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.853881</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.862952</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.86758</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865356</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857798</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869102</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864253</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858868</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863671</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884323</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869827</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.881997</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865399</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866213</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860166</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860166</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863014</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866514</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864536</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866514</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.859304</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860166</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860166</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860166</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860166</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865399</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865399</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865399</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.877458</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87292</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876609</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.871407</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.871407</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.871407</t>
         </is>
       </c>
     </row>
@@ -1000,252 +1000,252 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.777695</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.825917</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870482</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870159</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866261</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863222</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856925</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.848439</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.861469</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.880181</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.891585</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88097</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.904335</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.902222</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.887195</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.889557</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.890895</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.891585</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.891059</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.883686</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.895455</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.889894</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.90308</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.893101</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.900672</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.898113</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897281</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.891255</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.894617</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.901281</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.901281</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.905716</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.907186</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.904151</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.898113</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.894777</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.900151</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.904726</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.902642</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.907186</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.907186</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.900602</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.898113</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.898113</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.898113</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.898113</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.898113</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.898113</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.898113</t>
         </is>
       </c>
     </row>
@@ -1272,252 +1272,252 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.825273</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.832495</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.839763</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858002</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.850713</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876733</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856712</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863704</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.868157</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.842804</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856512</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.878856</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846269</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.868657</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865144</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.862121</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865716</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856931</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.853966</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.853313</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849438</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857143</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87191</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.848889</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856721</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.861963</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.847059</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.838806</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.845749</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860412</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860166</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860798</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.859701</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.850746</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.847305</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.853731</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.850746</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849478</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.845007</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.84844</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.851824</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.839046</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.839672</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.850969</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849071</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849071</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849071</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.850335</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.850335</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.850335</t>
         </is>
       </c>
     </row>
@@ -1816,252 +1816,252 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.740113</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.815504</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.845862</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860182</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.848529</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.833458</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.8699</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849772</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864985</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.853982</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.831307</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869237</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.855639</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860759</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857778</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.847584</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85119</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867868</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865269</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870894</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869237</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858859</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.861215</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860837</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.871017</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.871678</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.871678</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856703</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.874334</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.874334</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87234</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858663</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864742</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.874242</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876712</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856925</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858663</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858663</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856925</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870624</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870624</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870624</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870624</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870624</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870624</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870624</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87234</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87234</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87234</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87234</t>
         </is>
       </c>
     </row>
@@ -2088,252 +2088,252 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.820269</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870274</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.880597</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867525</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.872645</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.852807</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860837</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866972</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.861727</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.851796</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.850418</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.859081</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867636</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.871678</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.854545</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858655</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863706</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869499</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858663</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863878</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.852334</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.868182</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.877863</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.87519</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876336</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.877193</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.871091</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879271</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863671</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864329</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.8769</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858015</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876336</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.868381</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.880484</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863671</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864329</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863014</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863014</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876524</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870229</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870229</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.882308</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.881589</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876336</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876524</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876524</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876524</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876524</t>
         </is>
       </c>
     </row>
@@ -2360,252 +2360,252 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.782222</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.796145</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.827893</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.832084</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.851412</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.837658</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.839378</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866616</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.839089</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.852941</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.84405</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867378</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.851128</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846901</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.834447</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.859248</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.855234</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.852941</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865627</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856509</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.855234</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.862952</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857143</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.838615</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.852655</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.852702</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.84781</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.854182</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.845283</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857784</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.862069</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.851096</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866766</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867506</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.875</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.882615</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.872434</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866766</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.858608</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863126</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876488</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.851064</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867647</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866373</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.859455</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856512</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.848889</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.848889</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.852679</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.852679</t>
         </is>
       </c>
     </row>
